--- a/transformacion/staging/fact_proyectos_poai_2024.xlsx
+++ b/transformacion/staging/fact_proyectos_poai_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
   <si>
     <t>Nombre Proyecto_x</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
   </si>
   <si>
     <t>Contribución al desarrollo de los juegos del sector educativo en los municipios no certificados del Valle del Cauca</t>
@@ -629,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,10 +675,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>2024</v>
@@ -687,27 +699,33 @@
         <v>2320000000</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2024</v>
@@ -722,27 +740,33 @@
         <v>8823360000</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2024</v>
@@ -757,27 +781,33 @@
         <v>768928351</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2024</v>
@@ -792,27 +822,33 @@
         <v>598910000</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>2024</v>
@@ -827,27 +863,33 @@
         <v>739629408</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>67</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>2024</v>
@@ -862,27 +904,33 @@
         <v>3053783278</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2024</v>
@@ -897,27 +945,33 @@
         <v>452000000</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>2024</v>
@@ -932,27 +986,33 @@
         <v>3949756074</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>70</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2024</v>
@@ -967,27 +1027,33 @@
         <v>513400000</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2024</v>
@@ -1002,27 +1068,33 @@
         <v>23100000</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>72</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>2024</v>
@@ -1037,27 +1109,33 @@
         <v>451488800</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>2024</v>
@@ -1072,27 +1150,33 @@
         <v>93000000</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>74</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>2024</v>
@@ -1107,27 +1191,33 @@
         <v>256721600</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>2024</v>
@@ -1142,27 +1232,33 @@
         <v>36000000</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>76</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>2024</v>
@@ -1177,27 +1273,33 @@
         <v>2394802959</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>2024</v>
@@ -1212,27 +1314,33 @@
         <v>303200000</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>2024</v>
@@ -1247,27 +1355,33 @@
         <v>677360000</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>79</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>2024</v>
@@ -1282,27 +1396,33 @@
         <v>1263634193</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>80</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>2024</v>
@@ -1317,27 +1437,33 @@
         <v>481206000</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>81</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>2024</v>
@@ -1352,27 +1478,33 @@
         <v>12000000</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>82</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>2024</v>
@@ -1387,27 +1519,33 @@
         <v>2056643992</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>83</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>2024</v>
@@ -1422,27 +1560,33 @@
         <v>632093107</v>
       </c>
       <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
         <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>33</v>
       </c>
       <c r="B24">
         <v>2024</v>
@@ -1457,27 +1601,33 @@
         <v>54000000</v>
       </c>
       <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
         <v>35</v>
       </c>
-      <c r="G24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
       <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" t="s">
         <v>60</v>
       </c>
-      <c r="J24" t="s">
-        <v>58</v>
-      </c>
       <c r="K24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>85</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>2024</v>
@@ -1492,22 +1642,28 @@
         <v>452752053</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
